--- a/CU04 Realizar Llamada.xlsx
+++ b/CU04 Realizar Llamada.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Revisor</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>Paso 5 - El sistema invoca CU ModificarEstadoTicket</t>
+  </si>
+  <si>
+    <t>El sistema modifica el estado de la oportunidad. Invocando CU ModificarEstadoOportunidad</t>
+  </si>
+  <si>
+    <t>Paso 6 - El sistema invoca CU ModificarEstadoOportunidad</t>
   </si>
 </sst>
 </file>
@@ -622,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,81 +743,97 @@
       <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="28"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="17"/>
-    </row>
-    <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B13" s="23"/>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>2</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>20</v>
       </c>
       <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B16" s="26" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>4</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>23</v>
       </c>
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
+        <v>5</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>6</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B19" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>7</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C22" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CU04 Realizar Llamada.xlsx
+++ b/CU04 Realizar Llamada.xlsx
@@ -130,19 +130,19 @@
     <t>El sistema registrá un nuevo ticket.</t>
   </si>
   <si>
-    <t>El sistema modifica el estado del ticket. Invocando CU ModificarEstadoTicket</t>
-  </si>
-  <si>
     <t>Realizar Llamada</t>
   </si>
   <si>
-    <t>Paso 5 - El sistema invoca CU ModificarEstadoTicket</t>
-  </si>
-  <si>
-    <t>El sistema modifica el estado de la oportunidad. Invocando CU ModificarEstadoOportunidad</t>
-  </si>
-  <si>
-    <t>Paso 6 - El sistema invoca CU ModificarEstadoOportunidad</t>
+    <t>Paso 5 - El sistema invoca CU Cambio Estado Ticket</t>
+  </si>
+  <si>
+    <t>Paso 6 - El sistema invoca CU Cambio Estado Oportunidad</t>
+  </si>
+  <si>
+    <t>El sistema modifica el estado del ticket. Invocando CU Cambio Estado Ticket</t>
+  </si>
+  <si>
+    <t>El sistema modifica el estado de la oportunidad. Invocando CU Cambio Estado Oportunidad</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +668,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="6"/>
@@ -738,14 +738,14 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="28"/>
     </row>
@@ -797,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C18" s="11"/>
     </row>
@@ -806,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="11"/>
     </row>

--- a/CU04 Realizar Llamada.xlsx
+++ b/CU04 Realizar Llamada.xlsx
@@ -133,16 +133,16 @@
     <t>Realizar Llamada</t>
   </si>
   <si>
-    <t>Paso 5 - El sistema invoca CU Cambio Estado Ticket</t>
-  </si>
-  <si>
     <t>Paso 6 - El sistema invoca CU Cambio Estado Oportunidad</t>
   </si>
   <si>
-    <t>El sistema modifica el estado del ticket. Invocando CU Cambio Estado Ticket</t>
-  </si>
-  <si>
     <t>El sistema modifica el estado de la oportunidad. Invocando CU Cambio Estado Oportunidad</t>
+  </si>
+  <si>
+    <t>El sistema modifica el estado del ticket. Invocando CU05 Cambio Estado Ticket</t>
+  </si>
+  <si>
+    <t>Paso 5 - El sistema invoca CU05 Cambio Estado Ticket</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,14 +738,14 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="28"/>
     </row>
@@ -792,7 +792,7 @@
       </c>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>5</v>
       </c>
@@ -806,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="11"/>
     </row>
@@ -830,7 +830,7 @@
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="13"/>

--- a/CU04 Realizar Llamada.xlsx
+++ b/CU04 Realizar Llamada.xlsx
@@ -133,16 +133,16 @@
     <t>Realizar Llamada</t>
   </si>
   <si>
-    <t>Paso 6 - El sistema invoca CU Cambio Estado Oportunidad</t>
-  </si>
-  <si>
-    <t>El sistema modifica el estado de la oportunidad. Invocando CU Cambio Estado Oportunidad</t>
-  </si>
-  <si>
     <t>El sistema modifica el estado del ticket. Invocando CU05 Cambio Estado Ticket</t>
   </si>
   <si>
     <t>Paso 5 - El sistema invoca CU05 Cambio Estado Ticket</t>
+  </si>
+  <si>
+    <t>Paso 6 - El sistema invoca CU06 Cambio Estado Oportunidad</t>
+  </si>
+  <si>
+    <t>El sistema modifica el estado de la oportunidad. Invocando CU06 Cambio Estado Oportunidad</t>
   </si>
 </sst>
 </file>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,14 +738,14 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="28"/>
     </row>
@@ -797,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="11"/>
     </row>
@@ -806,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C19" s="11"/>
     </row>

--- a/CU04 Realizar Llamada.xlsx
+++ b/CU04 Realizar Llamada.xlsx
@@ -115,34 +115,35 @@
     <t>El sistema, al momento en que el telemarketer realiza una llamada a una determinada oportunidad, muestra una pantalla con los datos de la oportunidad, la fecha y hora de llamada, un desplegable para categorizar el ticket,un recuadro para ingresar observaciones, un botón "Cortar" y un botón "Confirmar".</t>
   </si>
   <si>
+    <t>El actor hace click en el botón "Confirmar"</t>
+  </si>
+  <si>
+    <t>El sistema valida que se haya seleccionado una opción de la lista desplegable y activa el botón "Confirmar"</t>
+  </si>
+  <si>
+    <t>El sistema registrá un nuevo ticket.</t>
+  </si>
+  <si>
+    <t>Realizar Llamada</t>
+  </si>
+  <si>
+    <t>El sistema modifica el estado del ticket. Invocando CU05 Cambio Estado Ticket</t>
+  </si>
+  <si>
+    <t>Paso 5 - El sistema invoca CU05 Cambio Estado Ticket</t>
+  </si>
+  <si>
+    <t>Paso 6 - El sistema invoca CU06 Cambio Estado Oportunidad</t>
+  </si>
+  <si>
+    <t>El sistema modifica el estado de la oportunidad. Invocando CU06 Cambio Estado Oportunidad</t>
+  </si>
+  <si>
     <t>Que existan campañas activas.
 Que existan oportunidades asignadas a campañas.
 Que existan oportunidades en estado "Abierta"
-Que existan oportunidades asigandas al actor.</t>
-  </si>
-  <si>
-    <t>El actor hace click en el botón "Confirmar"</t>
-  </si>
-  <si>
-    <t>El sistema valida que se haya seleccionado una opción de la lista desplegable y activa el botón "Confirmar"</t>
-  </si>
-  <si>
-    <t>El sistema registrá un nuevo ticket.</t>
-  </si>
-  <si>
-    <t>Realizar Llamada</t>
-  </si>
-  <si>
-    <t>El sistema modifica el estado del ticket. Invocando CU05 Cambio Estado Ticket</t>
-  </si>
-  <si>
-    <t>Paso 5 - El sistema invoca CU05 Cambio Estado Ticket</t>
-  </si>
-  <si>
-    <t>Paso 6 - El sistema invoca CU06 Cambio Estado Oportunidad</t>
-  </si>
-  <si>
-    <t>El sistema modifica el estado de la oportunidad. Invocando CU06 Cambio Estado Oportunidad</t>
+Que existan oportunidades asigandas al actor.
+Que el actor haya hecho click en el botón "Llamar" del formulario "Oportunidad"</t>
   </si>
 </sst>
 </file>
@@ -630,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +669,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="6"/>
@@ -717,12 +718,12 @@
       </c>
       <c r="C8" s="20"/>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C9" s="13"/>
     </row>
@@ -738,14 +739,14 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="28"/>
     </row>
@@ -779,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="11"/>
     </row>
@@ -788,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
     </row>
@@ -797,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="11"/>
     </row>
@@ -806,7 +807,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="11"/>
     </row>
@@ -815,7 +816,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="11"/>
     </row>

--- a/CU04 Realizar Llamada.xlsx
+++ b/CU04 Realizar Llamada.xlsx
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Se registró correctamente el ticket.</t>
-  </si>
-  <si>
-    <t>El sistema muestra el formulario "Ticket" con los datos de la oportunidad, la fecha y hora de llamada, un desplegable para categorizar el ticket y un recuadro para ingresar observaciones.</t>
   </si>
   <si>
     <t>Telemarketer</t>
@@ -112,9 +109,6 @@
     <t>El actor selecciona una de las opciones de la lista desplegable de Resoluciones.</t>
   </si>
   <si>
-    <t>El sistema, al momento en que el telemarketer realiza una llamada a una determinada oportunidad, muestra una pantalla con los datos de la oportunidad, la fecha y hora de llamada, un desplegable para categorizar el ticket,un recuadro para ingresar observaciones, un botón "Cortar" y un botón "Confirmar".</t>
-  </si>
-  <si>
     <t>El actor hace click en el botón "Confirmar"</t>
   </si>
   <si>
@@ -144,6 +138,12 @@
 Que existan oportunidades en estado "Abierta"
 Que existan oportunidades asigandas al actor.
 Que el actor haya hecho click en el botón "Llamar" del formulario "Oportunidad"</t>
+  </si>
+  <si>
+    <t>El sistema, al momento en que el telemarketer realiza una llamada a una determinada oportunidad, muestra el formulario "Ticket" con los datos de la oportunidad, la fecha y hora de llamada, un desplegable para categorizar el ticket,un recuadro para ingresar observaciones, un botón "Cortar" y un botón "Confirmar".</t>
+  </si>
+  <si>
+    <t>El sistema muestra en pantalla el formulario "Ticket".</t>
   </si>
 </sst>
 </file>
@@ -243,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -269,9 +269,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -631,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,10 +654,10 @@
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
@@ -668,10 +665,10 @@
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="13"/>
+      <c r="B3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="12"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
@@ -679,162 +676,162 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="20"/>
+      <c r="B8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="13"/>
+      <c r="B9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="C10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="28"/>
+      <c r="B11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="27"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="28"/>
+      <c r="B12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="27"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="17"/>
-    </row>
-    <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="11"/>
+      <c r="B14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="11"/>
+      <c r="B15" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="11"/>
+      <c r="B16" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="11"/>
+      <c r="B17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="11"/>
+      <c r="B18" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>6</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="11"/>
+      <c r="B19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>7</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="11"/>
+      <c r="B20" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CU04 Realizar Llamada.xlsx
+++ b/CU04 Realizar Llamada.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Revisor</t>
   </si>
@@ -121,18 +121,6 @@
     <t>Realizar Llamada</t>
   </si>
   <si>
-    <t>El sistema modifica el estado del ticket. Invocando CU05 Cambio Estado Ticket</t>
-  </si>
-  <si>
-    <t>Paso 5 - El sistema invoca CU05 Cambio Estado Ticket</t>
-  </si>
-  <si>
-    <t>Paso 6 - El sistema invoca CU06 Cambio Estado Oportunidad</t>
-  </si>
-  <si>
-    <t>El sistema modifica el estado de la oportunidad. Invocando CU06 Cambio Estado Oportunidad</t>
-  </si>
-  <si>
     <t>Que existan campañas activas.
 Que existan oportunidades asignadas a campañas.
 Que existan oportunidades en estado "Abierta"
@@ -144,6 +132,12 @@
   </si>
   <si>
     <t>El sistema muestra en pantalla el formulario "Ticket".</t>
+  </si>
+  <si>
+    <t>El sistema modifica el estado del ticket.</t>
+  </si>
+  <si>
+    <t>El sistema modifica el estado de la oportunidad.</t>
   </si>
 </sst>
 </file>
@@ -243,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -317,12 +311,6 @@
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -626,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7" s="12"/>
     </row>
@@ -720,7 +708,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" s="12"/>
     </row>
@@ -734,104 +722,90 @@
       <c r="C10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="27"/>
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="27"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>1</v>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>3</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>6</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="10"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>7</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B20" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="12"/>
+      <c r="C20" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CU04 Realizar Llamada.xlsx
+++ b/CU04 Realizar Llamada.xlsx
@@ -68,6 +68,33 @@
   </si>
   <si>
     <t>Telemarketer</t>
+  </si>
+  <si>
+    <t>El actor selecciona una de las opciones de la lista desplegable de Resoluciones.</t>
+  </si>
+  <si>
+    <t>El actor hace click en el botón "Confirmar"</t>
+  </si>
+  <si>
+    <t>El sistema valida que se haya seleccionado una opción de la lista desplegable y activa el botón "Confirmar"</t>
+  </si>
+  <si>
+    <t>El sistema registrá un nuevo ticket.</t>
+  </si>
+  <si>
+    <t>Realizar Llamada</t>
+  </si>
+  <si>
+    <t>El sistema, al momento en que el telemarketer realiza una llamada a una determinada oportunidad, muestra el formulario "Ticket" con los datos de la oportunidad, la fecha y hora de llamada, un desplegable para categorizar el ticket,un recuadro para ingresar observaciones, un botón "Cortar" y un botón "Confirmar".</t>
+  </si>
+  <si>
+    <t>El sistema muestra en pantalla el formulario "Ticket".</t>
+  </si>
+  <si>
+    <t>El sistema modifica el estado del ticket.</t>
+  </si>
+  <si>
+    <t>El sistema modifica el estado de la oportunidad.</t>
   </si>
   <si>
     <r>
@@ -102,42 +129,14 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>: Paso 2.a del CU1.2 Ver Oportunidad: El actor hace click en el botón "Llamar" del formulario "Oportunidad"</t>
+      <t>: Paso 2.a del CU1.2 Ver Oportunidad: El actor hace click en el botón "Llamar" del formulario "Administracion de Telemarketer"</t>
     </r>
-  </si>
-  <si>
-    <t>El actor selecciona una de las opciones de la lista desplegable de Resoluciones.</t>
-  </si>
-  <si>
-    <t>El actor hace click en el botón "Confirmar"</t>
-  </si>
-  <si>
-    <t>El sistema valida que se haya seleccionado una opción de la lista desplegable y activa el botón "Confirmar"</t>
-  </si>
-  <si>
-    <t>El sistema registrá un nuevo ticket.</t>
-  </si>
-  <si>
-    <t>Realizar Llamada</t>
   </si>
   <si>
     <t>Que existan campañas activas.
 Que existan oportunidades asignadas a campañas.
 Que existan oportunidades en estado "Abierta"
-Que existan oportunidades asigandas al actor.
-Que el actor haya hecho click en el botón "Llamar" del formulario "Oportunidad"</t>
-  </si>
-  <si>
-    <t>El sistema, al momento en que el telemarketer realiza una llamada a una determinada oportunidad, muestra el formulario "Ticket" con los datos de la oportunidad, la fecha y hora de llamada, un desplegable para categorizar el ticket,un recuadro para ingresar observaciones, un botón "Cortar" y un botón "Confirmar".</t>
-  </si>
-  <si>
-    <t>El sistema muestra en pantalla el formulario "Ticket".</t>
-  </si>
-  <si>
-    <t>El sistema modifica el estado del ticket.</t>
-  </si>
-  <si>
-    <t>El sistema modifica el estado de la oportunidad.</t>
+Que el actor haya hecho click en el botón "Llamar" del formulario "Administracion de Telemarketer"</t>
   </si>
 </sst>
 </file>
@@ -654,7 +653,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="6"/>
@@ -690,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="12"/>
     </row>
@@ -703,12 +702,12 @@
       </c>
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C9" s="12"/>
     </row>
@@ -717,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C10" s="20"/>
     </row>
@@ -733,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="10"/>
     </row>
@@ -742,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="10"/>
     </row>
@@ -751,7 +750,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="10"/>
     </row>
@@ -760,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="10"/>
     </row>
@@ -769,7 +768,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="10"/>
     </row>
@@ -778,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="10"/>
     </row>
@@ -787,7 +786,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="10"/>
     </row>

--- a/CU04 Realizar Llamada.xlsx
+++ b/CU04 Realizar Llamada.xlsx
@@ -14,17 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Revisor</t>
   </si>
   <si>
-    <t>Versión</t>
-  </si>
-  <si>
-    <t>0001</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -40,9 +34,6 @@
     <t>Pre-condición</t>
   </si>
   <si>
-    <t>Puntos de Extensión</t>
-  </si>
-  <si>
     <t>Curso Básico</t>
   </si>
   <si>
@@ -64,79 +55,40 @@
     <t>CUD04</t>
   </si>
   <si>
-    <t>Se registró correctamente el ticket.</t>
-  </si>
-  <si>
-    <t>Telemarketer</t>
-  </si>
-  <si>
-    <t>El actor selecciona una de las opciones de la lista desplegable de Resoluciones.</t>
-  </si>
-  <si>
     <t>El actor hace click en el botón "Confirmar"</t>
   </si>
   <si>
     <t>El sistema valida que se haya seleccionado una opción de la lista desplegable y activa el botón "Confirmar"</t>
   </si>
   <si>
-    <t>El sistema registrá un nuevo ticket.</t>
-  </si>
-  <si>
     <t>Realizar Llamada</t>
   </si>
   <si>
-    <t>El sistema, al momento en que el telemarketer realiza una llamada a una determinada oportunidad, muestra el formulario "Ticket" con los datos de la oportunidad, la fecha y hora de llamada, un desplegable para categorizar el ticket,un recuadro para ingresar observaciones, un botón "Cortar" y un botón "Confirmar".</t>
-  </si>
-  <si>
     <t>El sistema muestra en pantalla el formulario "Ticket".</t>
-  </si>
-  <si>
-    <t>El sistema modifica el estado del ticket.</t>
-  </si>
-  <si>
-    <t>El sistema modifica el estado de la oportunidad.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Condicion:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> El actor quiere realizar llamada.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Punto de extensión</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Paso 2.a del CU1.2 Ver Oportunidad: El actor hace click en el botón "Llamar" del formulario "Administracion de Telemarketer"</t>
-    </r>
   </si>
   <si>
     <t>Que existan campañas activas.
 Que existan oportunidades asignadas a campañas.
 Que existan oportunidades en estado "Abierta"
 Que el actor haya hecho click en el botón "Llamar" del formulario "Administracion de Telemarketer"</t>
+  </si>
+  <si>
+    <t>El actor selecciona una de las opciones de la lista desplegable de Resoluciones y completa el campo "Observaciones".</t>
+  </si>
+  <si>
+    <t>Se registró correctamente un nuevo ticket.</t>
+  </si>
+  <si>
+    <t>El sistema, al momento en que el usuario desea realizar una llamada a una determinada oportunidad, muestra el formulario "Ticket" con los datos de la oportunidad, la fecha y hora de llamada, un desplegable para categorizar la llamada, un recuadro para ingresar observaciones y un botón "Confirmar".</t>
+  </si>
+  <si>
+    <t>Telemarketer,Supervisor,Coordinador</t>
+  </si>
+  <si>
+    <t>El sistema registrá un nuevo ticket,modifica el estado del mismo, el estado de la oportunidad, y muestra el mensaje "Llamada registrada con exito"</t>
+  </si>
+  <si>
+    <t>5.a El sistema no pudo registrar el ticket y muestra el mensaje "No se pudo registrar la llamada."</t>
   </si>
 </sst>
 </file>
@@ -182,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -205,38 +157,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -250,9 +176,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -263,52 +186,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -613,198 +509,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5">
-        <v>42897</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B8" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="19"/>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="20"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>2</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>3</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>4</v>
-      </c>
-      <c r="B15" s="25" t="s">
+      <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>5</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>6</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>7</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
